--- a/examples/reports/en-gb/CompanyProceduresReportTemplate.xlsx
+++ b/examples/reports/en-gb/CompanyProceduresReportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\en-gb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88E0348-60F7-4D81-9844-83C9304F7632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875AFA3D-A2B2-40AD-B970-D7FBB6220605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>Сompany requests</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Company</t>
   </si>
@@ -205,16 +202,30 @@
   </si>
   <si>
     <t>Generated by $.BrandName at $.Now, times values in the document are in $.Tz timezone</t>
+  </si>
+  <si>
+    <t>$.Period</t>
+  </si>
+  <si>
+    <t>$.ReportName</t>
+  </si>
+  <si>
+    <t>Reporting period</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Fee</t>
+  </si>
+  <si>
+    <t>Who pays the Service Operator's Commission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.00"/>
-    <numFmt numFmtId="166" formatCode="#\ ##0.00&quot; ₽&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -308,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,9 +353,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -736,7 +744,7 @@
   <dimension ref="A1:BM22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -750,309 +758,255 @@
     <col min="9" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="20.6640625" customWidth="1"/>
     <col min="19" max="19" width="30.6640625" customWidth="1"/>
-    <col min="20" max="20" width="58.6640625" customWidth="1"/>
-    <col min="21" max="25" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="27.33203125" customWidth="1"/>
-    <col min="27" max="27" width="13.5546875" customWidth="1"/>
-    <col min="28" max="28" width="105.33203125" customWidth="1"/>
+    <col min="20" max="20" width="31.5546875" customWidth="1"/>
+    <col min="21" max="21" width="58.6640625" customWidth="1"/>
+    <col min="22" max="26" width="20.6640625" customWidth="1"/>
+    <col min="27" max="27" width="27.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13.5546875" customWidth="1"/>
+    <col min="29" max="29" width="105.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="23.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:65" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="6" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
     </row>
-    <row r="5" spans="1:65" ht="15.75" customHeight="1"/>
-    <row r="6" spans="1:65" s="6" customFormat="1" ht="15.6">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB6" s="4" t="s">
+    <row r="8" spans="1:65" ht="15.6">
+      <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-    </row>
-    <row r="7" spans="1:65" ht="15.6">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="V8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="W8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="Y8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="Z8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="AA8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AB8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AC8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="12"/>
-      <c r="BL7" s="12"/>
-    </row>
-    <row r="8" spans="1:65">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
@@ -1094,8 +1048,8 @@
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1109,7 +1063,6 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -1160,8 +1113,8 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1175,7 +1128,6 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
@@ -1226,8 +1178,8 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1241,7 +1193,6 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -1292,8 +1243,8 @@
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1307,7 +1258,6 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
@@ -1358,8 +1308,8 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1373,7 +1323,6 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -1424,8 +1373,8 @@
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1439,7 +1388,6 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -1490,8 +1438,8 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1505,7 +1453,6 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -1556,8 +1503,8 @@
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1571,7 +1518,6 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
@@ -1622,8 +1568,8 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1637,7 +1583,6 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
@@ -1688,8 +1633,8 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1703,7 +1648,6 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -1754,8 +1698,8 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1769,7 +1713,6 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -1820,8 +1763,8 @@
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1835,7 +1778,6 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -1886,8 +1828,8 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1901,7 +1843,6 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
@@ -1952,8 +1893,8 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1967,7 +1908,6 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
@@ -2015,7 +1955,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
